--- a/biology/Histoire de la zoologie et de la botanique/Charles_Pinel/Charles_Pinel.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Charles_Pinel/Charles_Pinel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles Pinel est un botaniste français né le 27 avril 1802 à Paris[1] et mort le 18 juillet 1871 à Nova Friburgo au Brésil[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Pinel est un botaniste français né le 27 avril 1802 à Paris et mort le 18 juillet 1871 à Nova Friburgo au Brésil,.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles Pinel est le fils de Philippe Pinel et le frère de Scipion Pinel. Après des études de sciences, de lettres et de droit à Nîmes, il émigre en 1834 au Brésil, où il devient un  botaniste de renommée internationale[4]. Il est un spécialiste des orchidées et des spermatophytes[5],[6],[7]. 
-En 1835, il se marie avec Marie Catherine Rime, avec laquelle il a   huit enfants, quatre fils et quatre filles[8]. Il a une descendance nombreuse au Brésil.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Pinel est le fils de Philippe Pinel et le frère de Scipion Pinel. Après des études de sciences, de lettres et de droit à Nîmes, il émigre en 1834 au Brésil, où il devient un  botaniste de renommée internationale. Il est un spécialiste des orchidées et des spermatophytes. 
+En 1835, il se marie avec Marie Catherine Rime, avec laquelle il a   huit enfants, quatre fils et quatre filles. Il a une descendance nombreuse au Brésil.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Taxons</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Gemellaria C. Pinel ex Antoine
 Gemellaria C. Pinel ex Lemaire
@@ -575,7 +591,9 @@
           <t>Éponymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Aechmea pineliana Baker
 Echinostachys pineliana Brongn. ex Planch.
